--- a/doc/ecg_bom.xlsx
+++ b/doc/ecg_bom.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -168,18 +168,9 @@
     <t>CONN1</t>
   </si>
   <si>
-    <t>609-3700-1-ND</t>
-  </si>
-  <si>
     <t>FCI</t>
   </si>
   <si>
-    <t>20021221-00010C4LF</t>
-  </si>
-  <si>
-    <t>CONN HEADER 10POS DUAL SHRD SMD</t>
-  </si>
-  <si>
     <t>C1, C2</t>
   </si>
   <si>
@@ -390,12 +381,6 @@
     <t>CAP CER 220PF 25V 10% X7R 0201</t>
   </si>
   <si>
-    <t>4 PIN CONN HEADER FEMALE</t>
-  </si>
-  <si>
-    <t>6 PIN CONN HEADER FEMALE</t>
-  </si>
-  <si>
     <t>IC5, IC6, IC7</t>
   </si>
   <si>
@@ -462,10 +447,46 @@
     <t>ANTENNA CHIP 2.4GHZ</t>
   </si>
   <si>
-    <t>U$1, U$2, U$3, U$4</t>
-  </si>
-  <si>
-    <t>U$5</t>
+    <t>609-3695-1-ND</t>
+  </si>
+  <si>
+    <t>20021121-00010C4LF</t>
+  </si>
+  <si>
+    <t>CONN HEADER 10POS DL UNSHRD SMD</t>
+  </si>
+  <si>
+    <t>952-1228-5-ND</t>
+  </si>
+  <si>
+    <t>M80-8870605</t>
+  </si>
+  <si>
+    <t>952-1227-5-ND</t>
+  </si>
+  <si>
+    <t>M80-8870405</t>
+  </si>
+  <si>
+    <t>CONN RECEPT 2MM VERT PCB 4POS</t>
+  </si>
+  <si>
+    <t>CONN RECEPT 2MM VERT PCB 6POS</t>
+  </si>
+  <si>
+    <t>TVS1,TVS2,TVS3,TVS4</t>
+  </si>
+  <si>
+    <t>UCLAMP3311PCT-ND</t>
+  </si>
+  <si>
+    <t>Semtech</t>
+  </si>
+  <si>
+    <t>UCLAMP3311P.TCT</t>
+  </si>
+  <si>
+    <t>TVS ARRAY ESD/CDE PROT SLP1006P2</t>
   </si>
 </sst>
 </file>
@@ -475,7 +496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,11 +537,6 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="11"/>
@@ -529,15 +545,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -567,20 +606,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -590,26 +626,9 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,9 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,12 +648,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -955,1271 +1018,1351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="40.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1">
-      <c r="A3" s="5" t="s">
+      <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="23">
         <v>14.58</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="23">
         <f>H4*I4</f>
         <v>14.58</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="23">
         <v>2.67</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="23">
         <f t="shared" ref="J5:J21" si="0">H5*I5</f>
         <v>2.67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="23">
         <v>0.74</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="23">
         <f t="shared" si="0"/>
         <v>0.74</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="13">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="23">
         <v>7.56</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>7.56</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="13">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="23">
         <v>0.75</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="23">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="A9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="23">
         <v>0.41</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="23">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="C10" s="9"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="23">
         <v>1.8</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="23">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="23">
         <v>1.2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="23">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="13">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="23">
         <v>0.64</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="23">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="11"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1.29</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>3.71</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="0"/>
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J17" s="23">
+        <f>H17*I17</f>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="30"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="B19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.74</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <f>H17*I17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="C18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="E19" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="13">
         <v>2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="23">
         <v>0.24</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="23">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14">
-      <c r="A20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3">
+    <row r="20" spans="1:12">
+      <c r="A20" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="13">
         <v>2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="23">
         <v>0.11</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="23">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="A21" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="13">
         <v>5</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="23">
         <v>0.41</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="23">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="A22" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="13">
+        <v>11</v>
+      </c>
+      <c r="I22" s="23">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="23">
         <f>H22*I22</f>
         <v>0.40699999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="13">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="23">
         <v>0.78</v>
       </c>
-      <c r="J23" s="4">
-        <f t="shared" ref="J23:J38" si="1">H23*I23</f>
+      <c r="J23" s="23">
+        <f t="shared" ref="J23:J37" si="1">H23*I23</f>
         <v>0.78</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="13" customFormat="1">
-      <c r="A24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="7" t="s">
+    <row r="24" spans="1:12" s="5" customFormat="1">
+      <c r="A24" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="14">
+      <c r="G24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="18">
         <v>2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="23">
         <v>0.42</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="23">
         <f t="shared" si="1"/>
         <v>0.84</v>
       </c>
-      <c r="L24" s="20"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="A25" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="13">
         <v>2</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="23">
         <v>0.23</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="23">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="13">
         <v>1</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="23">
         <f t="shared" si="1"/>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="C27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="A28" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="13">
         <v>4</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="23">
         <v>0.11</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="23">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="13">
         <v>1</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="23">
         <v>0.13</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="23">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="13">
         <v>1</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="23">
         <v>0.12</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="23">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="16">
+      <c r="A31" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="19">
         <v>1</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="23">
         <v>0.13</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="23">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="16">
+      <c r="A32" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="19">
         <v>1</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="23">
         <v>0.13</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="23">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14">
-      <c r="A33" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="16">
+    <row r="33" spans="1:10">
+      <c r="A33" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="19">
         <v>3</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="23">
         <v>0.11</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="23">
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="16">
+      <c r="A34" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="19">
         <v>4</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="23">
         <v>0.13</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="23">
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="16">
+      <c r="A35" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="19">
         <v>2</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="23">
         <v>0.13</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="23">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="B36" s="15"/>
-      <c r="C36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="16">
+      <c r="A37" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="19">
         <v>1</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="23">
         <v>0.94</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="23">
         <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="B38" s="15"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="14">
-      <c r="A39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="13">
         <v>1</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="23">
         <v>1.2</v>
       </c>
-      <c r="J39" s="4">
-        <f t="shared" ref="J39" si="2">H39*I39</f>
+      <c r="J39" s="23">
+        <f t="shared" ref="J39:J41" si="2">H39*I39</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="15"/>
-      <c r="C40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16">
+      <c r="A41" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="19">
         <v>4</v>
       </c>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" s="13" customFormat="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="I41" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="J41" s="23">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="5" customFormat="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16">
+      <c r="A43" s="29"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19">
         <v>1</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="22"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="J44" s="4"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="22"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="6" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="4">
-        <f>SUM(J4:J35)</f>
-        <v>41.176999999999992</v>
+      <c r="J45" s="23">
+        <f>SUM(J4:J41)</f>
+        <v>53.836999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="22"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="J46" s="4"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="6" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="6" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="6" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="4"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="J50" s="4"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="C51" s="9"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:12" s="13" customFormat="1">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="18"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
+      <c r="C51" s="4"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" s="5" customFormat="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="C53" s="9"/>
-      <c r="J53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="B54" s="15"/>
-      <c r="C54" s="9"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:12" s="13" customFormat="1">
-      <c r="C55" s="17"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="L55" s="20"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="4"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" s="5" customFormat="1">
+      <c r="C55" s="8"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="L55" s="11"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="C56" s="9"/>
-      <c r="J56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="J57" s="4"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="J57" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2230,31 +2373,34 @@
     <hyperlink ref="C12" r:id="rId5"/>
     <hyperlink ref="C11" r:id="rId6"/>
     <hyperlink ref="C13" r:id="rId7"/>
-    <hyperlink ref="C15" r:id="rId8"/>
-    <hyperlink ref="C29" r:id="rId9"/>
-    <hyperlink ref="C32" r:id="rId10"/>
-    <hyperlink ref="C35" r:id="rId11"/>
-    <hyperlink ref="C19" r:id="rId12"/>
-    <hyperlink ref="C25" r:id="rId13"/>
-    <hyperlink ref="C24" r:id="rId14"/>
-    <hyperlink ref="C6" r:id="rId15"/>
-    <hyperlink ref="C8" r:id="rId16"/>
-    <hyperlink ref="C21" r:id="rId17"/>
-    <hyperlink ref="C22" r:id="rId18"/>
-    <hyperlink ref="C28" r:id="rId19"/>
-    <hyperlink ref="C31" r:id="rId20"/>
-    <hyperlink ref="C23" r:id="rId21"/>
-    <hyperlink ref="C34" r:id="rId22"/>
-    <hyperlink ref="C30" r:id="rId23"/>
-    <hyperlink ref="C20" r:id="rId24"/>
-    <hyperlink ref="C39" r:id="rId25"/>
-    <hyperlink ref="C33" r:id="rId26"/>
-    <hyperlink ref="C37" r:id="rId27"/>
-    <hyperlink ref="C9" r:id="rId28"/>
-    <hyperlink ref="C26" r:id="rId29"/>
+    <hyperlink ref="C29" r:id="rId8"/>
+    <hyperlink ref="C32" r:id="rId9"/>
+    <hyperlink ref="C35" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C24" r:id="rId13"/>
+    <hyperlink ref="C6" r:id="rId14"/>
+    <hyperlink ref="C8" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C28" r:id="rId18"/>
+    <hyperlink ref="C31" r:id="rId19"/>
+    <hyperlink ref="C23" r:id="rId20"/>
+    <hyperlink ref="C34" r:id="rId21"/>
+    <hyperlink ref="C30" r:id="rId22"/>
+    <hyperlink ref="C20" r:id="rId23"/>
+    <hyperlink ref="C39" r:id="rId24"/>
+    <hyperlink ref="C33" r:id="rId25"/>
+    <hyperlink ref="C37" r:id="rId26"/>
+    <hyperlink ref="C9" r:id="rId27"/>
+    <hyperlink ref="C26" r:id="rId28"/>
+    <hyperlink ref="C15" r:id="rId29"/>
+    <hyperlink ref="C17" r:id="rId30"/>
+    <hyperlink ref="C16" r:id="rId31"/>
+    <hyperlink ref="C41" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId33"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
